--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1391300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1111300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1069600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4571000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1038800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1009700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1213700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>898900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>673200</v>
+      </c>
+      <c r="E9" s="3">
         <v>571000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>546400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2323300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>513500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>572400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1722100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>718100</v>
+      </c>
+      <c r="E10" s="3">
         <v>540300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>523200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2247700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>525300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>437300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-508400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,23 +888,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3800</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -900,37 +920,43 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E15" s="3">
         <v>69200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>67200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>280700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>64800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>366000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1418800</v>
+        <v>1254000</v>
       </c>
       <c r="E17" s="3">
+        <v>1447400</v>
+      </c>
+      <c r="F17" s="3">
         <v>975100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4360400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1005900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1032300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3720900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-307500</v>
+        <v>137300</v>
       </c>
       <c r="E18" s="3">
+        <v>-336100</v>
+      </c>
+      <c r="F18" s="3">
         <v>94500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1043,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-7700</v>
       </c>
       <c r="E20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-69300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-61700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2457300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>201200</v>
       </c>
       <c r="E21" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="F21" s="3">
         <v>158500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>422100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>117100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E22" s="3">
         <v>83800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>68400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>270900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>71400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>277200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>73800</v>
       </c>
       <c r="E23" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="F23" s="3">
         <v>22900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-129600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-155600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-327100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>60900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>88200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>81500</v>
       </c>
       <c r="E26" s="3">
+        <v>-473000</v>
+      </c>
+      <c r="F26" s="3">
         <v>17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-133000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-133200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-415300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>42500</v>
       </c>
       <c r="E27" s="3">
-        <v>-24900</v>
+        <v>-319600</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-548800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-134700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-378500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,26 +1343,29 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>-5000</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>-5000</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>695000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>7700</v>
       </c>
       <c r="E32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>69300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>61700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>42500</v>
       </c>
       <c r="E33" s="3">
-        <v>-24900</v>
+        <v>-319600</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-553800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-57900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-134700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>316500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>42500</v>
       </c>
       <c r="E35" s="3">
-        <v>-24900</v>
+        <v>-319600</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-553800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-57900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-134700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>316500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1028700</v>
+      </c>
+      <c r="E41" s="3">
         <v>869800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>880900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>705300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>830900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>499700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>639400</v>
+      </c>
+      <c r="E43" s="3">
         <v>597600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>519500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>779500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>806900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>789600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1746,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E45" s="3">
         <v>619300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>551400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>536900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>518500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>511000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3310100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2086700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1951700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2021800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2156300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E47" s="3">
         <v>295000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>225100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>580100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>920200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1178900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E48" s="3">
         <v>963500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>979400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1025200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1002500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>973800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5970000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5992000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5731800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5494500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5572700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5637700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E52" s="3">
         <v>966900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>719800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>170800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>351900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>294600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10730900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10304100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9607700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9292300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10003600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9885300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2096,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>556200</v>
+      </c>
+      <c r="E57" s="3">
         <v>522100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>497200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>509500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>451700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>460500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E58" s="3">
         <v>94800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>103200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>115400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>107700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>93300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1469400</v>
+        <v>2075100</v>
       </c>
       <c r="E59" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1317100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1188200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1466000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1280400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2707100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2165500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1917500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1813100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2025400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1834200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5032500</v>
+      </c>
+      <c r="E61" s="3">
         <v>5255700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5768300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4929900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4491600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4525200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>736500</v>
+      </c>
+      <c r="E62" s="3">
         <v>753500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>747600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>681200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>718500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>660200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9523100</v>
+      </c>
+      <c r="E66" s="3">
         <v>9165400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9312100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8335300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8613000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8385600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-277100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-319600</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>1207700</v>
       </c>
       <c r="E76" s="3">
+        <v>1138700</v>
+      </c>
+      <c r="F76" s="3">
         <v>295600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>957000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1390600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1499800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>42500</v>
       </c>
       <c r="E81" s="3">
-        <v>-24900</v>
+        <v>-319600</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-553800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-57900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-134700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>316500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E83" s="3">
         <v>69200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>280700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-70800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>392900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>315800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-59000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-135400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-36100</v>
       </c>
       <c r="E94" s="3">
+        <v>-380200</v>
+      </c>
+      <c r="F94" s="3">
         <v>7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>46100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>153300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3213,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-121000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3339,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-26400</v>
       </c>
       <c r="E100" s="3">
+        <v>475300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-77800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-428100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-145100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>184600</v>
       </c>
       <c r="E102" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-142200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>416100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-245300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,181 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1473800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1505600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1391300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1111300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1069600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4571000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1038800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1009700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1213700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>898900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>694600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>806600</v>
+      </c>
+      <c r="F9" s="3">
         <v>673200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>571000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>546400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2323300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>513500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>572400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1722100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>779200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>699000</v>
+      </c>
+      <c r="F10" s="3">
         <v>718100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>540300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>523200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2247700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>525300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>437300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-508400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,29 +924,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>32400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -923,40 +962,52 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F15" s="3">
         <v>71700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>69200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>67200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>280700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>64800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>78500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>366000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1299800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1452100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1254000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1447400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>975100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4360400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1005900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1032300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3720900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F18" s="3">
         <v>137300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-336100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>94500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>210600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>32900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-22600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,168 +1109,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>406400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-69300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>19400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-61700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2457300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>646400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F21" s="3">
         <v>201200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-259000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>158500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>422100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>117100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F22" s="3">
         <v>55800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>83800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>68400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>270900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>70700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>71400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>277200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>521100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F23" s="3">
         <v>73800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-412000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-129600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-155600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-327100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>60900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-22400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>88200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>538300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F26" s="3">
         <v>81500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-473000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>17800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-133000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-32100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-133200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-415300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F27" s="3">
         <v>42500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-319600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-548800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-52900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-134700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-378500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,26 +1467,32 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-5000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-5000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>695000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-406400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>94500</v>
+      </c>
+      <c r="F32" s="3">
         <v>7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>69300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-19400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>61700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F33" s="3">
         <v>42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-319600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-553800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-57900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-134700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>316500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F35" s="3">
         <v>42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-319600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-553800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-57900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-134700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>316500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2030300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1028700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>869800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>880900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>705300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>830900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>499700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,40 +1864,52 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>760500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>615000</v>
+      </c>
+      <c r="F43" s="3">
         <v>639400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>597600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>519500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>779500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>806900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>789600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,168 +1940,204 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>625400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1577700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1642000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>619300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>551400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>536900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>518500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>511000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3416200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3753700</v>
+      </c>
+      <c r="F46" s="3">
         <v>3310100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2086700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1951700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2021800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2156300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>492700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>298200</v>
+      </c>
+      <c r="F47" s="3">
         <v>285800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>295000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>225100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>580100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>920200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1178900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>991500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1003500</v>
+      </c>
+      <c r="F48" s="3">
         <v>961500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>963500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>979400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1025200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1002500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>973800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6132200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6118200</v>
+      </c>
+      <c r="F49" s="3">
         <v>5970000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5992000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5731800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5494500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5572700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5637700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>260900</v>
+      </c>
+      <c r="F52" s="3">
         <v>203400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>966900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>719800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>170800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>351900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>294600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11359400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11434500</v>
+      </c>
+      <c r="F54" s="3">
         <v>10730900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10304100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9607700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9292300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10003600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9885300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,200 +2356,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>527400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>558900</v>
+      </c>
+      <c r="F57" s="3">
         <v>556200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>522100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>497200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>509500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>451700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>460500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F58" s="3">
         <v>75900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>94800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>103200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>115400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>107700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>93300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1388700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2064600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2075100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1548500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1317100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1188200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1466000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1280400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1998800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2705400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2707100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2165500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1917500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1813100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2025400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1834200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5621400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5631700</v>
+      </c>
+      <c r="F61" s="3">
         <v>5032500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5255700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5768300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4929900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4491600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4525200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>772700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>766000</v>
+      </c>
+      <c r="F62" s="3">
         <v>736500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>753500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>747600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>681200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>718500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>660200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9689000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10187500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9523100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9165400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9312100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8335300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8613000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8385600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,23 +2900,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-296600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-277100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-319600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2585,14 +2932,20 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1670300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1207700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1138700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>295600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>957000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1390600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1499800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F81" s="3">
         <v>42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-319600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-553800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-57900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-134700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>316500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F83" s="3">
         <v>71700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>69200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>67200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>280700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>64800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>78500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>176300</v>
+      </c>
+      <c r="F89" s="3">
         <v>250800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-51400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-70800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>392900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>315800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-59000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-135400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-31100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-38900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>544700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-250500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-36100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-380200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>46100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>153300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-42500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,40 +3679,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-5200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-121000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-12100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-37000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3827,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>589100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-26400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>475300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-77800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-428100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-51400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-145100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>496600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>514300</v>
+      </c>
+      <c r="F102" s="3">
         <v>184600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-142200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>416100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-245300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1312500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1473800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1505600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1391300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1111300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1069600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4571000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1038800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1009700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1213700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>898900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>508400</v>
+      </c>
+      <c r="E9" s="3">
         <v>694600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>806600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>673200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>571000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>546400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2323300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>513500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>572400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1722100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>804100</v>
+      </c>
+      <c r="E10" s="3">
         <v>779200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>699000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>718100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>540300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>523200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2247700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>525300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>437300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-508400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,32 +947,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-463600</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>32400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -968,46 +988,52 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E15" s="3">
         <v>66000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>74800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>71700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>67200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>280700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>78500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>366000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1299800</v>
+        <v>1161500</v>
       </c>
       <c r="E17" s="3">
+        <v>836200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1452100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1254000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1447400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>975100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4360400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1005900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1032300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3720900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>174000</v>
+        <v>151000</v>
       </c>
       <c r="E18" s="3">
+        <v>637600</v>
+      </c>
+      <c r="F18" s="3">
         <v>53500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-336100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>94500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>210600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>406400</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-94500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-69300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2457300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E21" s="3">
         <v>646400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>201200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-259000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>158500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>422100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>117100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E22" s="3">
         <v>59300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>83800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>68400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>270900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>277200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E23" s="3">
         <v>521100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-101700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-412000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-129600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-155600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-327100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-80600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>60900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-22400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>88200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E26" s="3">
         <v>538300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-473000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-133000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-415300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E27" s="3">
         <v>319500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-319600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-548800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-134700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-378500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1473,26 +1534,29 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>-5000</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>-5000</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>695000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-406400</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F32" s="3">
         <v>94500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>69300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E33" s="3">
         <v>319500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-319600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-553800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-57900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-134700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>316500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E35" s="3">
         <v>319500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-319600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-553800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-57900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-134700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>316500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1824000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2030300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1561000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1028700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>869800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>880900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>705300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>830900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>499700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>826700</v>
+      </c>
+      <c r="E43" s="3">
         <v>760500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>615000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>639400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>597600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>519500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>779500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>806900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>789600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,198 +2042,216 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>810300</v>
+      </c>
+      <c r="E45" s="3">
         <v>625400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1577700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1642000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>619300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>551400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>536900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>518500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>511000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3461000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3416200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3753700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3310100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2086700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1951700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2021800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2156300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E47" s="3">
         <v>492700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>298200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>285800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>295000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>225100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>580100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>920200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1178900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>987700</v>
+      </c>
+      <c r="E48" s="3">
         <v>991500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1003500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>961500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>963500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>979400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1025200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1002500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>973800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6456600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6132200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6118200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5970000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5992000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5731800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5494500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5572700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5637700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>347800</v>
+      </c>
+      <c r="E52" s="3">
         <v>326700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>260900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>203400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>966900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>719800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>170800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>351900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>294600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11736600</v>
+      </c>
+      <c r="E54" s="3">
         <v>11359400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11434500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10730900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10304100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9607700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9292300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10003600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9885300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E57" s="3">
         <v>527400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>556200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>522100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>497200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>509500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>451700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>460500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E58" s="3">
         <v>82600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>75900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>94800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>103200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>115400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>107700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1581600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1388700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2064600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2075100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1548500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1317100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1188200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1466000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1280400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2268700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1998800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2705400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2707100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2165500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1917500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1813100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2025400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1834200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5596700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5621400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5631700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5032500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5255700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5768300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4929900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4491600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4525200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>745900</v>
+      </c>
+      <c r="E62" s="3">
         <v>772700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>766000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>736500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>753500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>747600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>681200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>718500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>660200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9835800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9689000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10187500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9523100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9165400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9312100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8335300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8613000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8385600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3077,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>22900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-277100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-319600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2938,14 +3112,17 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1670300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1247000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1207700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1138700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>295600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>957000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1390600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1499800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E81" s="3">
         <v>319500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-319600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-553800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-57900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-134700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>316500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E83" s="3">
         <v>66000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>280700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>271200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>176300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>250800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-51400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-70800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>392900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>315800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-59000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-135400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-421600</v>
+      </c>
+      <c r="E94" s="3">
         <v>544700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-250500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-380200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>46100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>153300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-5200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-121000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>589100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>475300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-77800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-428100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="E102" s="3">
         <v>496600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>514300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>184600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-142200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>416100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-245300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1221400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1312500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1473800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1505600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1391300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1111300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1069600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4571000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1038800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1009700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1213700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>898900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>464200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>398500</v>
+      </c>
+      <c r="F9" s="3">
         <v>508400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>694600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>806600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>673200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>571000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>546400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2323300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>513500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>572400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1722100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>796200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>822900</v>
+      </c>
+      <c r="F10" s="3">
         <v>804100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>779200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>699000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>718100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>540300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>523200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2247700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>525300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>437300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-508400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,38 +983,44 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-23300</v>
       </c>
       <c r="E14" s="3">
+        <v>700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-463600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>32400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,49 +1030,61 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F15" s="3">
         <v>65600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>66000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>74800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>71700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>69200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>67200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>280700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>64800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>78500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>366000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1064200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1161500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>836200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1452100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1254000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1447400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>975100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4360400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1005900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1032300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3720900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>157200</v>
+      </c>
+      <c r="F18" s="3">
         <v>151000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>637600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>53500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>137300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-336100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>94500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>210600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-22600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1210,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-822900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-57200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-94500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-69300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>19400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-61700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2457300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-633100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>219700</v>
+      </c>
+      <c r="F21" s="3">
         <v>212900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>646400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>33800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>201200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-259000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>158500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>422100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>117100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>75600</v>
+      </c>
+      <c r="F22" s="3">
         <v>62500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>59300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>60700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>55800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>83800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>68400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>270900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>70700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>71400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>277200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-789600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>80500</v>
+      </c>
+      <c r="F23" s="3">
         <v>84800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>521100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-101700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>73800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-412000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>22900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-129600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-155600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-327100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-642500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-17200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-80600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>60900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-22400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>88200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F26" s="3">
         <v>82100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>538300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>81500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-473000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>17800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-133000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-133200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-415300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F27" s="3">
         <v>25800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>319500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>42500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-319600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-548800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-134700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-378500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1537,26 +1658,32 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-5000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>695000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>822900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>57200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>94500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>69300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-19400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>61700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F33" s="3">
         <v>25800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>319500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>42500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-319600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-553800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-57900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-134700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>316500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F35" s="3">
         <v>25800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>319500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>42500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-319600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-553800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-57900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-134700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>316500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>767800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>970800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1824000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2030300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1561000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1028700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>869800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>880900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>705300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>830900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>499700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2142,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>893400</v>
+      </c>
+      <c r="F43" s="3">
         <v>826700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>760500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>615000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>639400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>597600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>519500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>779500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>806900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>789600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,213 +2236,249 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>851900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>823000</v>
+      </c>
+      <c r="F45" s="3">
         <v>810300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>625400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1577700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1642000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>619300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>551400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>536900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>518500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>511000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2536700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2687100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3461000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3416200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3753700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3310100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2086700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1951700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2021800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2156300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>407400</v>
+      </c>
+      <c r="F47" s="3">
         <v>483600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>492700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>298200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>285800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>295000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>225100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>580100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>920200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1178900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1042900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>967200</v>
+      </c>
+      <c r="F48" s="3">
         <v>987700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>991500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1003500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>961500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>963500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>979400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1025200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1002500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>973800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7490300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7437600</v>
+      </c>
+      <c r="F49" s="3">
         <v>6456600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6132200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6118200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5970000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5992000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5731800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5494500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5572700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5637700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>416500</v>
+      </c>
+      <c r="F52" s="3">
         <v>347800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>326700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>260900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>203400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>966900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>719800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>170800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>351900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>294600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12503800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11915900</v>
+      </c>
+      <c r="F54" s="3">
         <v>11736600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11359400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11434500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10730900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10304100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9607700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9292300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10003600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9885300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>540100</v>
+      </c>
+      <c r="F57" s="3">
         <v>600000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>527400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>558900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>556200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>522100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>497200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>509500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>451700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>460500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F58" s="3">
         <v>87100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>82600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>82000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>75900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>94800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>103200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>115400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>107700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>93300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1725600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1719600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1581600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1388700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2064600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2075100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1548500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1317100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1188200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1466000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1280400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2414500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2348800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2268700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1998800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2705400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2707100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2165500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1917500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1813100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2025400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1834200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5080200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5338400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5596700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5621400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5631700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5032500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5255700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5768300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4929900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4491600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4525200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1702500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>805200</v>
+      </c>
+      <c r="F62" s="3">
         <v>745900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>772700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>766000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>736500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>753500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>747600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>681200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>718500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>660200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10623000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9925400</v>
+      </c>
+      <c r="F66" s="3">
         <v>9835800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9689000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10187500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9523100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9165400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9312100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8335300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8613000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8385600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,32 +3421,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-216200</v>
       </c>
       <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-296600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-277100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-319600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3115,14 +3462,20 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1880800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1990500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1900800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1670300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1247000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1207700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1138700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>295600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>957000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1390600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1499800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F81" s="3">
         <v>25800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>319500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>42500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-319600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-553800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-57900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-134700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>316500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F83" s="3">
         <v>65600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>66000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>74800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>71700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>69200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>67200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>280700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>64800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>78500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>189300</v>
+      </c>
+      <c r="F89" s="3">
         <v>271200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>176300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>250800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-51400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-70800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>392900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>315800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-59000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-34000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-58800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-17800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-135400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-38900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-784200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-421600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>544700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-250500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-36100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-380200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>46100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>153300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-42500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4380,57 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-3600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-5200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-121000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-12100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-37000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-281700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-275400</v>
+      </c>
+      <c r="F100" s="3">
         <v>26300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>589100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-26400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>475300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-77800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-428100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-51400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-145100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-16600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-219000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-883900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-140700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>496600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>514300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>184600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-142200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>416100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-245300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1596800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1260400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1221400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1312500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1473800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1505600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1391300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1111300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1069600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4571000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1038800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1009700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1213700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>898900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>724300</v>
+      </c>
+      <c r="E9" s="3">
         <v>464200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>398500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>508400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>694600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>806600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>673200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>571000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>546400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2323300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>513500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>572400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1722100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>872500</v>
+      </c>
+      <c r="E10" s="3">
         <v>796200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>822900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>804100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>779200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>699000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>718100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>540300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>523200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2247700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>525300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>437300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-508400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,41 +1006,44 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-463600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1036,55 +1056,61 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E15" s="3">
         <v>71600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>63600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>65600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>66000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>74800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>71700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>69200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>67200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>280700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>78500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>366000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1460200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1142300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1064200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1161500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>836200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1452100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1254000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1447400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>975100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4360400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1005900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1032300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3720900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E18" s="3">
         <v>118100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>157200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>151000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>637600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>53500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-336100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>210600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-822900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-57200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-94500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-69300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-61700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2457300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-633100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>219700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>212900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>646400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>201200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-259000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>422100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E22" s="3">
         <v>84900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>75600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>270900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>277200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-789600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>80500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>84800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>521100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-101700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-412000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-129600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-155600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-327100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-642500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-80600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>60900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-22400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>88200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-147100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>538300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>81500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-473000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-133000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-133200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-415300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-206200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>319500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-319600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-548800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-134700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-378500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,26 +1725,29 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>-5000</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>-5000</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>695000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E32" s="3">
         <v>822900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>57200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>94500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>69300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>61700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-206200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>319500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-319600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-553800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-134700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-206200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>319500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-319600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-553800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-134700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>718700</v>
+      </c>
+      <c r="E41" s="3">
         <v>767800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>970800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1824000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2030300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1561000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1028700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>869800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>880900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>705300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>830900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>499700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>991600</v>
+      </c>
+      <c r="E43" s="3">
         <v>917000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>893400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>826700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>760500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>615000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>639400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>597600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>519500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>779500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>806900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>789600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,243 +2338,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>827900</v>
+      </c>
+      <c r="E45" s="3">
         <v>851900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>823000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>810300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>625400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1577700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1642000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>619300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>551400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>536900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>518500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>511000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2538200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2536700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2687100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3461000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3416200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3753700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3310100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2086700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1951700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2021800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2156300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>348500</v>
+      </c>
+      <c r="E47" s="3">
         <v>337000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>407400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>483600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>492700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>298200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>285800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>295000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>225100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>580100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>920200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1178900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1042900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>967200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>987700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>991500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1003500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>961500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>963500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>979400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1025200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1002500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>973800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7492100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7490300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7437600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6456600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6132200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6118200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5970000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5992000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5731800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5494500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5572700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5637700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1191800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1097000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>416500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>347800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>326700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>260900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>203400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>966900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>719800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>170800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>351900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>294600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12619700</v>
+      </c>
+      <c r="E54" s="3">
         <v>12503800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11915900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11736600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11359400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11434500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10730900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10304100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9607700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9292300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10003600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9885300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>615200</v>
+      </c>
+      <c r="E57" s="3">
         <v>600600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>540100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>527400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>556200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>522100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>497200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>509500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>451700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>460500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E58" s="3">
         <v>88300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>87100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>75900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>94800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>115400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>107700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1839100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1725600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1719600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1581600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1388700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2064600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2075100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1548500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1317100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1188200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1466000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1280400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2543000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2414500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2348800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2268700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1998800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2705400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2707100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2165500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1917500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1813100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2025400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1834200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5062500</v>
+      </c>
+      <c r="E61" s="3">
         <v>5080200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5338400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5596700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5621400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5631700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5032500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5255700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5768300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4929900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4491600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4525200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1617200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1702500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>805200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>745900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>772700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>766000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>736500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>753500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>747600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>681200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>718500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10594900</v>
+      </c>
+      <c r="E66" s="3">
         <v>10623000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9925400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9835800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9689000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10187500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9523100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9165400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9312100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8335300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8613000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8385600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-208200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-216200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>22900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-296600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-277100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-319600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3468,14 +3642,17 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2024800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1880800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1990500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1670300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1247000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1207700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1138700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>295600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>957000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1390600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1499800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-206200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>319500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-319600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-553800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-134700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E83" s="3">
         <v>71600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>66000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>74800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>280700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E89" s="3">
         <v>96400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>189300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>271200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>176300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>250800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-51400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-70800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>392900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>315800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-59000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-135400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-784200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-421600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>544700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-250500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-380200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>153300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,17 +4615,18 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4400,37 +4634,40 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-121000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-281700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-275400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>589100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>475300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-77800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-428100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-145100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>9800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-13700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-219000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-883900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-140700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>496600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>514300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>184600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-142200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>416100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-245300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1436200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1596800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1260400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1221400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1312500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1473800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1505600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1391300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1111300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1069600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4571000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1038800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1009700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1213700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>898900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E9" s="3">
         <v>724300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>464200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>398500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>508400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>694600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>806600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>673200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>571000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>546400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2323300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>513500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>572400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1722100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>852200</v>
+      </c>
+      <c r="E10" s="3">
         <v>872500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>796200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>822900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>804100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>779200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>699000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>718100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>540300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>523200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2247700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>525300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>437300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-508400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,35 +1038,35 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-23300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-463600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,58 +1079,64 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E15" s="3">
         <v>66800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>71600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>63600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>66000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>74800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>71700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>69200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>67200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>280700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>78500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>366000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1277800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1460200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1142300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1064200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1161500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>836200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1452100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1254000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1447400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>975100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4360400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1005900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1032300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3720900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E18" s="3">
         <v>136600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>118100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>157200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>151000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>637600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>137300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-336100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>751800</v>
+      </c>
+      <c r="E20" s="3">
         <v>26800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-822900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-57200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-94500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-69300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2457300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>971400</v>
+      </c>
+      <c r="E21" s="3">
         <v>230100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-633100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>219700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>212900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>646400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>201200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-259000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>158500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>422100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E22" s="3">
         <v>85100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>84900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>75600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>270900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>277200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E23" s="3">
         <v>78300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-789600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>80500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>84800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>521100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-101700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>73800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-412000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-129600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-155600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-327100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E24" s="3">
         <v>35500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-642500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-80600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-22400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>88200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E26" s="3">
         <v>42800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-147100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>82100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>538300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>81500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-473000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-133000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-133200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-415300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>403200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-206200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>319500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-319600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-548800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-134700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-378500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,26 +1789,29 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>-5000</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>-5000</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>695000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-751800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>822900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>57200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>94500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>69300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>403200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-206200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>319500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-319600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-553800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-134700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>403200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-206200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>319500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-319600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-553800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-134700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1616500</v>
+      </c>
+      <c r="E41" s="3">
         <v>718700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>767800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>970800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1824000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2030300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1561000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1028700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>869800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>880900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>705300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>830900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>499700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>982200</v>
+      </c>
+      <c r="E43" s="3">
         <v>991600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>917000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>893400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>826700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>760500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>615000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>639400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>597600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>519500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>779500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>806900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>789600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,258 +2437,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1009500</v>
+      </c>
+      <c r="E45" s="3">
         <v>827900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>851900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>823000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>810300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>625400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1577700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1642000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>619300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>551400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>536900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>518500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>511000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3608100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2538200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2536700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2687100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3461000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3416200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3753700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3310100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2086700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1951700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2021800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2156300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E47" s="3">
         <v>348500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>337000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>407400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>483600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>492700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>298200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>285800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>295000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>225100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>580100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>920200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1178900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>801500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1042900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>967200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>987700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>991500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1003500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>961500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>963500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>979400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1025200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1002500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>973800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7258300</v>
+      </c>
+      <c r="E49" s="3">
         <v>7492100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7490300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7437600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6456600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6132200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6118200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5970000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5992000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5731800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5494500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5572700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5637700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1191800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1097000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>416500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>347800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>326700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>260900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>203400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>966900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>719800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>170800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>351900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>294600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13316600</v>
+      </c>
+      <c r="E54" s="3">
         <v>12619700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12503800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11915900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11736600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11359400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11434500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10730900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10304100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9607700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9292300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10003600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9885300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>673700</v>
+      </c>
+      <c r="E57" s="3">
         <v>615200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>540100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>527400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>558900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>556200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>522100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>497200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>509500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>451700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>460500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E58" s="3">
         <v>88700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>88300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>89000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>87100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>82000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>75900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>115400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>107700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>93300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1860700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1839100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1725600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1719600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1581600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1388700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2064600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2075100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1548500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1317100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1188200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1466000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1280400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2633400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2543000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2414500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2348800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2268700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1998800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2705400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2707100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2165500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1917500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1813100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2025400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1834200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5011400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5062500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5080200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5338400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5596700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5621400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5631700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5032500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5255700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5768300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4929900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4491600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4525200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1574600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1617200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1702500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>805200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>745900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>772700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>766000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>736500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>753500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>747600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>681200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>718500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>660200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10812200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10594900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10623000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9925400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9835800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9689000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10187500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9523100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9165400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9312100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8335300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8613000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8385600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3772,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-208200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-216200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>22900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-277100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-319600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3645,14 +3819,17 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2504300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2024800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1880800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1990500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1670300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1247000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1207700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1138700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>295600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>957000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1390600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1499800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>403200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-206200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>319500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-319600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-553800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-134700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E83" s="3">
         <v>66800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>280700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>189300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>271200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>176300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>250800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-51400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-70800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>392900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>315800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-59000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-135400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>935500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-784200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-421600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>544700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-250500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-380200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>153300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,11 +4859,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-10100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4637,37 +4871,40 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-121000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-37000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-89900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-281700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-275400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>589100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>475300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-428100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-145100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>958100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-219000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-883900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-140700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>496600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>514300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>184600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-142200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>416100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-245300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>EDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1344400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1436200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1596800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1260400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1221400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1312500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1473800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1505600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1391300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1111300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1069600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4571000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1038800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1009700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1213700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>898900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>780700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>487900</v>
+      </c>
+      <c r="E9" s="3">
         <v>584000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>724300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>464200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>398500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>508400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>694600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>806600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>673200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>571000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>546400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2323300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>513500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>572400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1722100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>335100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>856500</v>
+      </c>
+      <c r="E10" s="3">
         <v>852200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>872500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>796200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>822900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>804100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>779200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>699000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>718100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>540300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>523200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2247700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>525300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>437300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-508400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>445600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,47 +1046,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-23300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-463600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1082,61 +1102,67 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E15" s="3">
         <v>61100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>66800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>71600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>63600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>65600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>66000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>74800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>71700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>69200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>67200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>280700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>64800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>78500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>366000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>91400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1312500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1277800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1460200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1142300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1064200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1161500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>836200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1452100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1254000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1447400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>975100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4360400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1005900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1032300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3720900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>843500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E18" s="3">
         <v>158400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>136600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>118100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>157200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>151000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>637600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-336100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>210600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2507200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>-62800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E20" s="3">
         <v>751800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-822900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-57200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-94500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-69300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2457300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E21" s="3">
         <v>971400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>230100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-633100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>219700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>212900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>646400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>201200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-259000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>422100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E22" s="3">
         <v>90300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>85100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>84900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>75600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>62500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>270900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>277200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="E23" s="3">
         <v>820000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>78300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-789600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>80500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>521100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-101700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-412000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-129600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-155600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-327100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>-151500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>140400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-642500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-80600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>88200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>87900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-113200</v>
+      </c>
+      <c r="E26" s="3">
         <v>679500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-147100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>538300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>81500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-473000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-133000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-133200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-415300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>-239400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E27" s="3">
         <v>403200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-206200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>319500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-319600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-548800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-134700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-378500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>-243800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,26 +1853,29 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>-5000</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>-5000</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>695000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-50200</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-751800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>822900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>57200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>94500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>69300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2457300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E33" s="3">
         <v>403200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-206200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>319500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-319600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-553800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-57900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-134700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>316500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E35" s="3">
         <v>403200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-206200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>319500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-319600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-553800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-57900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-134700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>316500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1337700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1616500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>718700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>767800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>970800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1824000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2030300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1561000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1028700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>869800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>880900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>705300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>830900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>499700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2424,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1083100</v>
+      </c>
+      <c r="E43" s="3">
         <v>982200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>991600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>917000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>893400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>826700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>760500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>615000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>639400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>597600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>519500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>779500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>806900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>789600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,273 +2536,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1266300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1009500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>827900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>851900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>823000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>810300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>625400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1577700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1642000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>619300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>551400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>536900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>518500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>511000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3687100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3608100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2538200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2536700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2687100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3461000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3416200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3753700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3310100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2086700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1951700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2021800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2156300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E47" s="3">
         <v>344000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>348500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>337000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>407400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>483600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>492700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>298200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>285800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>295000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>225100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>580100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>920200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1178900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1221800</v>
+      </c>
+      <c r="E48" s="3">
         <v>801500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1049000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1042900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>967200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>987700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>991500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1003500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>961500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>963500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>979400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1025200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1002500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>973800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15461700</v>
+      </c>
+      <c r="E49" s="3">
         <v>7258300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7492100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7490300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7437600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6456600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6132200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6118200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5970000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5992000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5731800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5494500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5572700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5637700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1304600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1191800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1097000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>416500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>347800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>326700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>260900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>203400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>966900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>719800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>170800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>351900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>294600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21901600</v>
+      </c>
+      <c r="E54" s="3">
         <v>13316600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12619700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12503800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11915900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11736600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11359400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11434500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10730900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10304100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9607700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9292300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10003600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9885300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>590100</v>
+      </c>
+      <c r="E57" s="3">
         <v>673700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>615200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>540100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>527400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>558900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>556200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>522100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>497200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>509500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>451700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>460500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E58" s="3">
         <v>99000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>88700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>88300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>89000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>87100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>82600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>82000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>75900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>94800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>103200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>115400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>107700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>93300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2269700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1860700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1839100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1725600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1719600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1581600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1388700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2064600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2075100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1548500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1317100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1188200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1466000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1280400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2922800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2633400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2543000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2414500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2348800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2268700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1998800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2705400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2707100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2165500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1917500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1813100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2025400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1834200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4983400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5011400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5062500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5080200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5338400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5596700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5621400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5631700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5032500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5255700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5768300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4929900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4491600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4525200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2125700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1574600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1617200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1702500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>805200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>745900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>772700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>766000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>736500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>753500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>747600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>681200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>718500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>660200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17138600</v>
+      </c>
+      <c r="E66" s="3">
         <v>10812200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10594900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10623000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9925400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9835800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9689000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10187500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9523100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9165400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9312100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8335300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8613000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8385600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,41 +3946,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E72" s="3">
         <v>195000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-208200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-216200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>22900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-277100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-319600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3822,14 +3996,17 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4763100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2504300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2024800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1880800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1990500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1670300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1247000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1207700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1138700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>295600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>957000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1390600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1499800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E81" s="3">
         <v>403200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-206200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>319500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-319600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-553800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-57900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-134700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>316500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>-294000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E83" s="3">
         <v>61100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>280700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E89" s="3">
         <v>96600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>189300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>271200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>176300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>250800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-70800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>392900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>315800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-53200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E94" s="3">
         <v>935500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-784200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-421600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>544700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-250500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-380200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>153300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,11 +5096,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-10100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4874,37 +5108,40 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-121000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-74000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-89900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-281700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-275400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>589100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>475300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-428100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-145100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="E102" s="3">
         <v>958100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-219000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-883900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-140700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>496600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>514300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>184600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-142200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>416100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-245300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
